--- a/outputs-GTDB-r202/g__CAG-603.xlsx
+++ b/outputs-GTDB-r202/g__CAG-603.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>s__CAG-603 sp900110975</t>
+          <t>s__CAG-603 sp900110975(reject)</t>
         </is>
       </c>
     </row>
